--- a/PLSstatic_predicted_factors_matrix_12.xlsx
+++ b/PLSstatic_predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.6759014528677975</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.5540245477692209</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.4545478462972828</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.3767811065271307</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.3198868603597292</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2828008631191165</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2642236559447376</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2626502398590785</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2764174498325613</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.3037567685692384</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.3428464588106719</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.3917300616423917</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4486721649730301</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.5119290258364049</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.5798626589792165</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.6509589438547342</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.7238403893598473</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.7972736335214077</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.870481445123812</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.9423012112937212</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.011923763098303</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.078676321264261</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.142016717415315</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.201525764384475</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.256898374944158</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.307933496039443</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.354523855219289</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.396645363378877</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.434346265929846</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.46773681253545</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.496979201801278</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.522277817663141</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.54387032400285</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.562019350570353</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.577004743823832</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.589116770481406</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.598649992736052</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.605897978015147</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.611148559334308</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.615044614157403</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-1.617424982299318</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-1.618552511892442</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-1.618671240593698</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-1.618005179433557</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>-1.069559249437472</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.180049398001286</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.270712061236219</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.339628304915739</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.385873034264835</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.409412362206524</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.410970812690211</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.391887631788441</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.353975081756611</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.299386820613509</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1.230499763450294</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1.149104440044655</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1.05864228006954</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.9616355582408316</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.8604900924168787</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.7574505231257629</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.6545674610348895</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.5536746898004438</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.4565018498258286</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.3640328495240811</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.2774349246075884</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1976434616023044</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1253706581160819</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.06111692705075674</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.005185418901436325</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.04230080485058405</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.08138017937500805</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.1122329324669125</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.1351607883654677</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.150567030964955</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.158937030022002</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1608195228821496</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.1568092882607744</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1475311336263072</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1336252865616402</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1157345530493523</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.09449302348247153</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.07051660655885914</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.04439452130059758</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.01664511877387026</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.01224949467956355</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.04179958235235323</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.07156011698996886</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.1011328382290688</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.4885516372854093</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.3724000916635476</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2620299340199806</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1583996308022399</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0624467930142048</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.02505128271993174</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.1035412113578933</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.1727105759988638</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.232475062340118</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.2829532530130632</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.3244296100986285</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.3568556125383271</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.3811720882749479</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.3980094900790762</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.4080297816504214</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.4119181839860897</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.4103688465972841</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.4040724932965255</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.3942036123976374</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.3808716912880012</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.3646855482218438</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.3462388361136911</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.3260902938795445</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.3047583416305194</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.2827175590977531</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.2603959797682318</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.2381738654116854</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.2163830169751266</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.1953069036910396</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.1751821136023475</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.1562001213282982</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.1385095858970055</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.1222195851203552</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.1074028274072174</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.09409902689750665</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.08231880283025482</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.07204724612988142</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.06324810679513522</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.05586550883419175</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.04993961199805752</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.04528640681110686</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.04181030351215791</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.03941259127590677</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.03799059486621211</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>0.3976248260262931</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.3064612913795567</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2135373374304952</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1212042074823214</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03146258844671831</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.0540229417039215</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.1339107176288486</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.2071651262627411</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.2730355506562538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.3310303634775975</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.3808896760286503</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.4219546570522538</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.4548442044715544</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.479858113715072</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.4974115243792405</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.5080057082123893</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.512205477250228</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.5106196131844909</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.5045534423875441</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.4939237754804188</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.4793700797275181</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.4615172568471571</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.4409717463647661</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.4183135898049186</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.3940896221333638</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.3688082505308735</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.342935309578717</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.3168913722618031</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.2910503041023664</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.2657386062143423</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.2412358615657056</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.2177760267597335</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.1955491720685529</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.174703920670243</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.1553503293512045</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.1375629029723695</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.1213839557313639</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.1068268578681804</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.09388008316566812</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08263117364920793</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.07289922533436222</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.06462116109003824</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.05771906388100312</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.05210450944807529</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>-0.5793931077074977</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.5247578613280461</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.4719494059964188</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.4218159619051403</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.3750766896607007</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.3322430651199318</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2936054714342038</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2592546278883361</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.229116493732739</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.2029908833354215</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.1805868466860688</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.1610086697364705</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.1444727928165137</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.1305860852287775</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.118961183378104</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.1092312445826497</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.1010587154266177</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.09413986037066542</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.08853648997358286</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.08367382051845405</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.07934866081374622</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.07539479339777821</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.07167732888513885</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.06808994683728831</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.06455222211348699</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.06100597708146194</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.0574126716381135</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.05375062021508478</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.05001159154544103</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.04619863618674028</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.04232386121592177</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.03840572194517199</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.03446750464354419</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.03053578257620649</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.0266384673654392</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.02280392448311585</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01905990107974855</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.01543291951277623</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01194694582557895</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.008637872755072721</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.005478681113734296</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.002491874016573661</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0003037365877132771</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.002893522425772113</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>0.1644115313478975</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.1917398039411899</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2112551451079867</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2236196106742548</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2294692966931469</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2294709675687397</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2243347190695154</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2148035803484835</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2016331964184055</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1855696950101862</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1673289785511718</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1469270666516487</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1258003241523259</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1044839480613574</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.08343760281599277</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.06304566811343888</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0436201245312204</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0254052463955026</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.008658802769072034</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.006655247576216166</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.02044303774653719</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.03265516456549349</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.04328022078758964</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.05233930365316353</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.05988078852967133</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.06597509483871518</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.070710097887938</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.07418683308871121</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.07651539454291423</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.07781155729298612</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.07819374672362477</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.07778025235507016</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.07668710506621172</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.07502626593795157</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.07290403552733001</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.07042000038629306</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.06766618401999666</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.06472642891933772</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.06167615600278425</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.05879769749445871</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.05588549196671449</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.05299875096583501</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.05018747159507953</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.0474928644110442</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>0.5209195796983663</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.4622020561956507</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.408394957761583</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3598884169840608</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3167337967296867</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.278858050130543</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2460661099117147</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2180588880746414</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1944579832950781</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1748406227618984</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1587462908807275</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1451833823712592</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1343130795715131</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1256672068407422</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1188137657358528</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1133626364764753</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1089688076780551</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1053333353771018</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1025684428207113</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1000627589142928</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.09765282438033146</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.09521158822103762</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.09264521899384473</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.08988969710300632</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.08690722530140378</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.08368218720061295</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.08021751885960585</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.07653115595262799</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.07265238837106718</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.06861891218496663</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.06447414829141336</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.06026460690772972</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.05603798794739818</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.05184155047239855</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.04772051810125039</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.04371712157552701</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.03993026416785187</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.03627646021832187</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.03284092770326544</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0297504601063988</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.02689990552680817</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0243056287748561</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.02197933171715991</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.01992817298010017</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>0.2969752580816325</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.2679631977766881</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2343655228768383</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1976306624644063</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1593924848805071</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1210785636318736</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.08390393766101666</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.04886700554981405</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.016751352496802</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.01173441844854711</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.03648013427928834</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.05696264914332645</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.07319488525256242</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.08527531023677229</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.0934000126071497</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.09784027965941219</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.09892288237811608</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.09701267959813686</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.09282865519070137</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.08638378436021707</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.07806548065249881</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.06825500288317005</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.05732022002604877</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.0456090747732363</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.03344444450968603</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.02112031068517525</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.008899154047234617</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.002989539649090378</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.01434983904870358</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.02501907718007365</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.03486685517712385</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.0437935140131787</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.05172814268025269</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.05862625963297682</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.06446730752400792</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.06925199009791028</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.07296945898849394</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.07571660293201814</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.07751006572762169</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.07865640749732832</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.07894313454721856</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0784424480477707</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.07723197543310906</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.07539255137878409</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.1233008677280541</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.1441468641114784</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.152399394807901</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1508743678837127</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1419060454774673</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1274659993145044</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1092337910607043</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0886385034379738</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.06688492409717263</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04497515272674578</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0237135869331335</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.003588045919125858</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.01464458109561232</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.03067479965469574</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.04431784976367933</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.05549460129492324</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.0642136751175415</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.07055445407150494</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.07503211056491478</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.07740222530382997</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.07786288209100989</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.07663197233233129</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.07393891884967758</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.07001714744074707</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.06509779166480105</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.05940434645563679</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.05314863440764424</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.04652766614329399</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.03972116033743055</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.03289006916237667</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.02617570500862262</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.01969926111483021</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.01356204973481839</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.007846094841935242</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.00261490246290261</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.002085304022109841</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.006224877781299618</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.009786733208141359</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.01276841837174468</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.01524529009789104</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.01716676647478251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.01855362814142691</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.01943468500522576</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.01984492544701023</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>0.0650493155543596</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.03300732209440426</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0107535855997237</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.003677949745334114</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.01221110802271729</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.01647704665851946</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.01780856995556545</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.01729687368351438</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.01567116326483576</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.01357554505456951</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.01143492869275498</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.009417908471575611</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.007854924385711986</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.006817996323097929</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.006318389567581312</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.00632402669925608</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.006774059843730881</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.007590369098596</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.008767228525717216</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.01014395798869528</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.01163893644261984</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.01317407649158727</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.01467854076783918</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.01609069923648506</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.01735918459224907</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.01844319359109647</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.01931237058942323</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.0199463157885124</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.02033377548041268</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.02047171705220734</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.0203643034227166</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.02002178717487934</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.01945942462787876</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.01869642820748279</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.01775496289958407</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.0166592094686979</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.01541478942015905</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.01408945474397535</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.0126861931677669</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.0113543545431932</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.009954246404050592</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.008514801997042312</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.00706184642941148</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.005618333660719653</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>0.07512287986379232</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.04458653643848351</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0264087886734532</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01572301378196267</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01021991736107586</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.008013759136874795</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.007980999390100616</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.009350920816202795</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01166777404566251</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01443571923200484</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01746965220735634</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.02038272815997134</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0231983694748019</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.02576448949475272</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.02797305402341442</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.02982543714005047</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.03126637282492392</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.03228685171640121</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.03312183421769666</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.03349002341686051</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.03345576124545164</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.03305738783474514</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.03233533467525222</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.03136676575918809</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0301232213758931</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.02868269658812706</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.027122235159387</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.02540990059814619</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.02362013448169329</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.02182203312864777</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.01997922297669772</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.01815597137450439</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.01640855668419042</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.01469631141237041</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.0130699241543605</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.01154432414274868</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.01016604010847019</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.00887154506514027</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.007702766935624755</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.006695313536537881</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.005817358779307366</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.005031843814101905</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.00436264484126935</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.003808017228852456</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -652,6 +2200,135 @@
       </c>
       <c r="E13" t="n">
         <v>0.271960400642083</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2274485734470224</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.18658956086444</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1509642008186709</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1209208084540196</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.09630097140367254</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.07661886132436248</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.06126280356742002</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.04961074893397822</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04107801795429272</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03508654393194027</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.03096717002702265</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.02852772101728248</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.02737988791197248</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.02720793027286826</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.02767267377128992</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0285659760198386</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.02969808607587308</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.03111123141154931</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.03252366408630099</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.03380960503298602</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.03490404853362044</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.03576461321538057</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.03633706992843768</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.03667529548882319</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.0367481048898452</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.03654090291629814</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.03612747434958296</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.03550113311822543</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.03466768382699651</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.0337012264950367</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.03260651599236776</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.03139754513156422</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.03013796757537435</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.02883585899237702</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.02751700215520382</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.02620190133231187</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.02491967470950389</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.02368276400255557</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.02265093723129916</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.02165208781216865</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.02071562910827782</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.01984751101960215</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.01905834807374075</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_factors_matrix_12.xlsx
+++ b/PLSstatic_predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-1.618671240593698</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-1.618005179433557</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>-0.07156011698996886</v>
       </c>
-      <c r="AV3" t="n">
-        <v>-0.1011328382290688</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>-0.03941259127590677</v>
       </c>
-      <c r="AV4" t="n">
-        <v>-0.03799059486621211</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.05771906388100312</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.05210450944807529</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.0003037365877132771</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.002893522425772113</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.05018747159507953</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.0474928644110442</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>0.02197933171715991</v>
       </c>
-      <c r="AV8" t="n">
-        <v>0.01992817298010017</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>0.07723197543310906</v>
       </c>
-      <c r="AV9" t="n">
-        <v>0.07539255137878409</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.01943468500522576</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.01984492544701023</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.00706184642941148</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.005618333660719653</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>0.00436264484126935</v>
       </c>
-      <c r="AV12" t="n">
-        <v>0.003808017228852456</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2326,9 +2290,6 @@
       </c>
       <c r="AU13" t="n">
         <v>0.01984751101960215</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0.01905834807374075</v>
       </c>
     </row>
   </sheetData>
